--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\fz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{48132F81-F191-4F1E-8083-16E473A2E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB77C5DF-F06F-4F30-A0A0-6C111DEC817B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,14 +43,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,13 +356,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2042,9 +2041,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal_MIN" xfId="2"/>
+    <cellStyle name="Normal_PRC" xfId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
   </cellStyles>
@@ -2067,7 +2066,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2542,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I21"/>
   <sheetViews>
@@ -2550,21 +2549,21 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2583,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.45" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="39.6">
+    <row r="6" spans="2:9" ht="38.25">
       <c r="B6" s="55" t="s">
         <v>10</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="51.75" thickBot="1">
       <c r="B7" s="44" t="s">
         <v>17</v>
       </c>
@@ -2769,7 +2768,7 @@
       <c r="C13" s="53"/>
       <c r="E13" s="53"/>
     </row>
-    <row r="16" spans="2:9" ht="13.8" thickBot="1">
+    <row r="16" spans="2:9" ht="13.5" thickBot="1">
       <c r="B16" s="79" t="s">
         <v>36</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+    <row r="21" spans="2:3" ht="13.5" thickBot="1">
       <c r="B21" s="52" t="s">
         <v>44</v>
       </c>
@@ -2828,24 +2827,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L10" sqref="L10:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3182,7 +3181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+    <row r="26" spans="2:4" ht="13.5" thickBot="1">
       <c r="B26" s="52" t="s">
         <v>106</v>
       </c>
@@ -3205,32 +3204,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="10" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="23" width="6.6640625" customWidth="1"/>
-    <col min="24" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="37" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="10" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="23" width="6.7109375" customWidth="1"/>
+    <col min="24" max="30" width="9.7109375" customWidth="1"/>
+    <col min="31" max="37" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="17.399999999999999">
+    <row r="2" spans="2:37" ht="18">
       <c r="B2" s="8" t="s">
         <v>108</v>
       </c>
@@ -3270,7 +3269,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+    <row r="5" spans="2:37" ht="31.15" customHeight="1" thickBot="1">
       <c r="B5" s="54" t="s">
         <v>50</v>
       </c>
@@ -3665,7 +3664,9 @@
       <c r="E10" s="15">
         <v>28</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>42</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="J10" s="91"/>
@@ -3741,7 +3742,9 @@
       <c r="E11" s="22">
         <v>30</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>160.33333333333334</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="J11" s="91"/>
@@ -3941,7 +3944,7 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="17.399999999999999">
+    <row r="17" spans="2:7" ht="18">
       <c r="B17" s="8" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39.6">
+    <row r="20" spans="2:7" ht="38.25">
       <c r="B20" s="55" t="s">
         <v>138</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+    <row r="21" spans="2:7" ht="51.75" thickBot="1">
       <c r="B21" s="44" t="s">
         <v>143</v>
       </c>
@@ -4130,7 +4133,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
+    <row r="29" spans="2:7" ht="13.5" thickBot="1">
       <c r="B29" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
@@ -4364,15 +4367,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -4381,6 +4375,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4403,14 +4406,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4419,4 +4414,12 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\fz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC73DB3-2236-46C6-B2CF-191491630067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,14 +44,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0">
+    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0">
+    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="2" shapeId="0">
+    <comment ref="H5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0">
+    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -356,13 +357,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -783,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1363,11 +1364,23 @@
   <si>
     <t>Annual Extraction Lower Bound [PJ/a]</t>
   </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Hydro Energy</t>
+  </si>
+  <si>
+    <t>MIN_HYDRO</t>
+  </si>
+  <si>
+    <t>HYDRO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1794,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1872,25 +1885,16 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2039,11 +2043,38 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal_MIN" xfId="2"/>
-    <cellStyle name="Normal_PRC" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
   </cellStyles>
@@ -2066,7 +2097,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2132,7 +2163,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -2541,29 +2578,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I21"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="1:9" ht="17.399999999999999">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2612,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="1:9">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2583,7 +2620,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.45" customHeight="1">
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2595,85 +2632,85 @@
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="38.25">
-      <c r="B6" s="55" t="s">
+    <row r="6" spans="1:9" ht="39.6">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="51.75" thickBot="1">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:9" ht="53.4" thickBot="1">
+      <c r="B7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
@@ -2691,7 +2728,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
@@ -2709,7 +2746,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
@@ -2727,7 +2764,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
         <v>24</v>
       </c>
@@ -2745,72 +2782,86 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="16" spans="2:9" ht="13.5" thickBot="1">
-      <c r="B16" s="79" t="s">
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.8" thickBot="1">
+      <c r="B16" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="72"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B21" s="52" t="s">
+    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+      <c r="B21" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="46" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2827,24 +2878,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:P11"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2861,96 +2912,96 @@
         <v>47</v>
       </c>
       <c r="C4" s="28"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="36" customHeight="1">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="54.6" customHeight="1" thickBot="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1">
       <c r="B8" s="30" t="s">
@@ -3014,13 +3065,13 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
@@ -3042,11 +3093,11 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="30" t="s">
@@ -3071,124 +3122,145 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="45" t="s">
+    <row r="13" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B13" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
+      <c r="G13" s="106"/>
+      <c r="H13" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.8" thickBot="1">
+      <c r="B14" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="45" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.5" thickBot="1">
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+      <c r="B26" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3204,32 +3276,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="10" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" customWidth="1"/>
-    <col min="18" max="23" width="6.7109375" customWidth="1"/>
-    <col min="24" max="30" width="9.7109375" customWidth="1"/>
-    <col min="31" max="37" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="10" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="23" width="6.6640625" customWidth="1"/>
+    <col min="24" max="30" width="9.6640625" customWidth="1"/>
+    <col min="31" max="37" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="18">
+    <row r="2" spans="2:37" ht="17.399999999999999">
       <c r="B2" s="8" t="s">
         <v>108</v>
       </c>
@@ -3269,230 +3341,230 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.15" customHeight="1" thickBot="1">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+      <c r="B5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="47" t="s">
         <v>116</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="71"/>
-      <c r="N5" s="54" t="s">
+      <c r="J5" s="64"/>
+      <c r="N5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="73" t="s">
+      <c r="T5" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="73" t="s">
+      <c r="U5" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="73" t="s">
+      <c r="V5" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="W5" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="X5" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="73" t="s">
+      <c r="Y5" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" s="73" t="s">
+      <c r="Z5" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AA5" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AB5" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="AC5" s="73" t="s">
+      <c r="AC5" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="74" t="s">
+      <c r="AD5" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="AE5" s="73" t="s">
+      <c r="AE5" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="AF5" s="73" t="s">
+      <c r="AF5" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="AG5" s="73" t="s">
+      <c r="AG5" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" s="73" t="s">
+      <c r="AH5" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AI5" s="73" t="s">
+      <c r="AI5" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="AJ5" s="73" t="s">
+      <c r="AJ5" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AK5" s="74" t="s">
+      <c r="AK5" s="67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="47.25" customHeight="1">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="48" t="s">
         <v>159</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
-      <c r="N6" s="55" t="s">
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
+      <c r="N6" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="97" t="s">
+      <c r="Q6" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="83" t="s">
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="83" t="s">
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="84"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="77"/>
     </row>
     <row r="7" spans="2:37" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>148</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="N7" s="44" t="s">
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+      <c r="N7" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="85" t="s">
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="85" t="s">
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="87"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="80"/>
     </row>
     <row r="8" spans="2:37" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -3513,11 +3585,11 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="J8" s="88" t="s">
+      <c r="J8" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
       <c r="N8" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
@@ -3530,47 +3602,47 @@
         <f t="shared" si="0"/>
         <v>HC</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="56">
         <v>15</v>
       </c>
-      <c r="R8" s="62">
+      <c r="R8" s="55">
         <f>Q8*1.02</f>
         <v>15.3</v>
       </c>
-      <c r="S8" s="62">
+      <c r="S8" s="55">
         <f t="shared" ref="S8:W8" si="1">R8*1.02</f>
         <v>15.606000000000002</v>
       </c>
-      <c r="T8" s="62">
+      <c r="T8" s="55">
         <f t="shared" si="1"/>
         <v>15.918120000000002</v>
       </c>
-      <c r="U8" s="62">
+      <c r="U8" s="55">
         <f t="shared" si="1"/>
         <v>16.236482400000003</v>
       </c>
-      <c r="V8" s="62">
+      <c r="V8" s="55">
         <f t="shared" si="1"/>
         <v>16.561212048000005</v>
       </c>
-      <c r="W8" s="68">
+      <c r="W8" s="61">
         <f t="shared" si="1"/>
         <v>16.892436288960006</v>
       </c>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
     </row>
     <row r="9" spans="2:37" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="str">
@@ -3591,9 +3663,9 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
       <c r="N9" s="19" t="str">
         <f t="shared" ref="N9:N13" si="2">B9</f>
         <v>MIN_BC</v>
@@ -3606,7 +3678,7 @@
         <f t="shared" ref="P9:P13" si="4">D9</f>
         <v>BC</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="57">
         <v>7</v>
       </c>
       <c r="R9" s="22">
@@ -3629,7 +3701,7 @@
         <f t="shared" si="5"/>
         <v>7.3570703506999999</v>
       </c>
-      <c r="W9" s="69">
+      <c r="W9" s="62">
         <f t="shared" si="5"/>
         <v>7.4306410542070003</v>
       </c>
@@ -3640,7 +3712,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="64"/>
+      <c r="AE9" s="57"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -3664,14 +3736,12 @@
       <c r="E10" s="15">
         <v>28</v>
       </c>
-      <c r="F10" s="14">
-        <v>42</v>
-      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
       <c r="N10" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_NAT-GAS</v>
@@ -3684,7 +3754,7 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="Q10" s="58">
         <v>28</v>
       </c>
       <c r="R10" s="15">
@@ -3707,7 +3777,7 @@
         <f t="shared" si="6"/>
         <v>32.459674080400006</v>
       </c>
-      <c r="W10" s="70">
+      <c r="W10" s="63">
         <f t="shared" si="6"/>
         <v>33.433464302812006</v>
       </c>
@@ -3718,7 +3788,7 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="65"/>
+      <c r="AE10" s="58"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
@@ -3742,14 +3812,12 @@
       <c r="E11" s="22">
         <v>30</v>
       </c>
-      <c r="F11" s="21">
-        <v>160.33333333333334</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
       <c r="N11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>IMP_NAT-GAS</v>
@@ -3762,7 +3830,7 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="57">
         <v>30</v>
       </c>
       <c r="R11" s="22">
@@ -3785,7 +3853,7 @@
         <f t="shared" si="7"/>
         <v>28.529701496999998</v>
       </c>
-      <c r="W11" s="69">
+      <c r="W11" s="62">
         <f t="shared" si="7"/>
         <v>28.244404482029999</v>
       </c>
@@ -3796,7 +3864,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="64"/>
+      <c r="AE11" s="57"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="22"/>
@@ -3817,15 +3885,15 @@
         <f>SEC_Comm!C11</f>
         <v>WIND-ON</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="51">
         <v>1E-3</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
       <c r="N12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_WIND-ON</v>
@@ -3838,25 +3906,25 @@
         <f t="shared" si="4"/>
         <v>WIND-ON</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="Q12" s="59">
         <v>1E-3</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="S12" s="58">
+      <c r="S12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="T12" s="58">
+      <c r="T12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="U12" s="58">
+      <c r="U12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="51">
         <v>1E-3</v>
       </c>
-      <c r="W12" s="77">
+      <c r="W12" s="70">
         <v>1E-3</v>
       </c>
       <c r="X12" s="14"/>
@@ -3866,7 +3934,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="75"/>
+      <c r="AE12" s="68"/>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
@@ -3875,27 +3943,27 @@
       <c r="AK12" s="14"/>
     </row>
     <row r="13" spans="2:37" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="23" t="str">
+      <c r="B13" s="110" t="str">
         <f>SEC_Processes!D13</f>
         <v>MIN_SOLAR</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="110" t="str">
         <f>SEC_Processes!E13</f>
         <v>Solar</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="111" t="str">
         <f>SEC_Comm!C12</f>
         <v>SOLAR</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="112">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
       <c r="N13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MIN_SOLAR</v>
@@ -3908,25 +3976,25 @@
         <f t="shared" si="4"/>
         <v>SOLAR</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="60">
         <v>1E-3</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="S13" s="59">
+      <c r="S13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="T13" s="59">
+      <c r="T13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="U13" s="59">
+      <c r="U13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="V13" s="59">
+      <c r="V13" s="52">
         <v>1E-3</v>
       </c>
-      <c r="W13" s="78">
+      <c r="W13" s="71">
         <v>1E-3</v>
       </c>
       <c r="X13" s="25"/>
@@ -3936,7 +4004,7 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="76"/>
+      <c r="AE13" s="69"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -3944,7 +4012,27 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="18">
+    <row r="14" spans="2:37" ht="13.8" thickBot="1">
+      <c r="B14" s="109" t="str">
+        <f>SEC_Processes!D14</f>
+        <v>MIN_HYDRO</v>
+      </c>
+      <c r="C14" s="109" t="str">
+        <f>SEC_Processes!E14</f>
+        <v>Hydro</v>
+      </c>
+      <c r="D14" s="109" t="str">
+        <f>SEC_Comm!C13</f>
+        <v>HYDRO</v>
+      </c>
+      <c r="E14" s="109">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+    </row>
+    <row r="17" spans="2:7" ht="17.399999999999999">
       <c r="B17" s="8" t="s">
         <v>150</v>
       </c>
@@ -3952,62 +4040,62 @@
       <c r="D17" s="8"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="38.25">
-      <c r="B20" s="55" t="s">
+    <row r="20" spans="2:7" ht="39.6">
+      <c r="B20" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="51.75" thickBot="1">
-      <c r="B21" s="44" t="s">
+    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+      <c r="B21" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="40" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4034,24 +4122,24 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="19" t="str">
@@ -4126,14 +4214,14 @@
         <f t="shared" si="8"/>
         <v>WIND-ON</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="51">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.5" thickBot="1">
+    <row r="29" spans="2:7" ht="13.8" thickBot="1">
       <c r="B29" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
@@ -4146,7 +4234,7 @@
         <f t="shared" si="8"/>
         <v>SOLAR</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="52">
         <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
@@ -4172,6 +4260,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4366,27 +4474,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4403,23 +4510,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>